--- a/import/prep/excel/63-6ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มค63 (1-31มีค63).xlsx
+++ b/import/prep/excel/63-6ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มค63 (1-31มีค63).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89109BED-371D-8241-901C-9A3CE3A00DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E5811-567C-AD48-9E35-28443B7E2DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8760" windowWidth="35180" windowHeight="20040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$S$842</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$AB$253</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11830,7 +11830,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11882,6 +11882,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12005,7 +12011,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12399,36 +12405,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12447,12 +12423,60 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -68914,8 +68938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A264" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q285" sqref="Q285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -68941,24 +68965,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="155" t="s">
         <v>3452</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
       <c r="Q1" s="140"/>
       <c r="R1" s="74"/>
     </row>
@@ -68996,7 +69020,7 @@
       <c r="C3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="156" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="149" t="s">
@@ -69006,35 +69030,35 @@
       <c r="G3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="158" t="s">
+      <c r="J3" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="171" t="s">
+      <c r="K3" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="158" t="s">
+      <c r="L3" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="158" t="s">
+      <c r="M3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="158" t="s">
+      <c r="N3" s="161" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="160" t="s">
+      <c r="P3" s="165" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="138"/>
-      <c r="R3" s="162" t="s">
+      <c r="R3" s="167" t="s">
         <v>19</v>
       </c>
     </row>
@@ -69042,25 +69066,25 @@
       <c r="A4" s="149"/>
       <c r="B4" s="149"/>
       <c r="C4" s="149"/>
-      <c r="D4" s="166"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="149"/>
       <c r="F4" s="86"/>
       <c r="G4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
       <c r="O4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="161"/>
+      <c r="P4" s="166"/>
       <c r="Q4" s="139"/>
-      <c r="R4" s="163"/>
+      <c r="R4" s="168"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="71">
@@ -80457,7 +80481,7 @@
         <v>6.37</v>
       </c>
       <c r="O204" s="90">
-        <f t="shared" ref="O204:O267" si="23">ROUNDDOWN(H204+I204+M204,2)</f>
+        <f t="shared" ref="O204:P267" si="23">ROUNDDOWN(H204+I204+M204,2)</f>
         <v>97.37</v>
       </c>
       <c r="P204" s="90">
@@ -82518,7 +82542,7 @@
       <c r="Q240" s="90"/>
       <c r="R240" s="99"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A241" s="71">
         <v>237</v>
       </c>
@@ -82575,7 +82599,7 @@
       <c r="Q241" s="90"/>
       <c r="R241" s="99"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A242" s="71">
         <v>238</v>
       </c>
@@ -82632,7 +82656,7 @@
       <c r="Q242" s="90"/>
       <c r="R242" s="99"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A243" s="71">
         <v>239</v>
       </c>
@@ -82689,7 +82713,7 @@
       <c r="Q243" s="90"/>
       <c r="R243" s="99"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A244" s="71">
         <v>240</v>
       </c>
@@ -82746,7 +82770,7 @@
       <c r="Q244" s="90"/>
       <c r="R244" s="99"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A245" s="71">
         <v>241</v>
       </c>
@@ -82803,7 +82827,7 @@
       <c r="Q245" s="90"/>
       <c r="R245" s="99"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A246" s="71">
         <v>242</v>
       </c>
@@ -82860,7 +82884,7 @@
       <c r="Q246" s="90"/>
       <c r="R246" s="99"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A247" s="71">
         <v>243</v>
       </c>
@@ -82917,7 +82941,7 @@
       <c r="Q247" s="90"/>
       <c r="R247" s="99"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A248" s="71">
         <v>244</v>
       </c>
@@ -82974,7 +82998,7 @@
       <c r="Q248" s="90"/>
       <c r="R248" s="99"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A249" s="71">
         <v>245</v>
       </c>
@@ -83031,7 +83055,7 @@
       <c r="Q249" s="90"/>
       <c r="R249" s="99"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A250" s="71">
         <v>246</v>
       </c>
@@ -83088,7 +83112,7 @@
       <c r="Q250" s="90"/>
       <c r="R250" s="99"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A251" s="71">
         <v>247</v>
       </c>
@@ -83145,7 +83169,7 @@
       <c r="Q251" s="90"/>
       <c r="R251" s="99"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A252" s="71">
         <v>248</v>
       </c>
@@ -83202,7 +83226,7 @@
       <c r="Q252" s="90"/>
       <c r="R252" s="99"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A253" s="71">
         <v>249</v>
       </c>
@@ -83259,7 +83283,7 @@
       <c r="Q253" s="90"/>
       <c r="R253" s="99"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A254" s="71">
         <v>250</v>
       </c>
@@ -83318,7 +83342,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A255" s="71">
         <v>251</v>
       </c>
@@ -83370,14 +83394,15 @@
         <v>37.450000000000003</v>
       </c>
       <c r="P255" s="90">
-        <v>202.22</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="Q255" s="90"/>
       <c r="R255" s="99" t="s">
         <v>3894</v>
       </c>
-    </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S255" s="37"/>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A256" s="71">
         <v>252</v>
       </c>
@@ -83429,7 +83454,7 @@
         <v>41.19</v>
       </c>
       <c r="P256" s="90">
-        <v>0</v>
+        <v>41.19</v>
       </c>
       <c r="Q256" s="90"/>
       <c r="R256" s="99" t="s">
@@ -83488,7 +83513,7 @@
         <v>123.58</v>
       </c>
       <c r="P257" s="90">
-        <v>0</v>
+        <v>123.58</v>
       </c>
       <c r="Q257" s="90"/>
       <c r="R257" s="99" t="s">
@@ -84755,57 +84780,57 @@
       <c r="R279" s="92"/>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A280" s="71">
+      <c r="A280" s="173">
         <v>276</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="174" t="s">
         <v>3751</v>
       </c>
-      <c r="C280" s="26" t="s">
+      <c r="C280" s="175" t="s">
         <v>3734</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="174" t="s">
         <v>2263</v>
       </c>
-      <c r="E280" s="89" t="s">
+      <c r="E280" s="176" t="s">
         <v>3769</v>
       </c>
-      <c r="F280" s="89" t="s">
+      <c r="F280" s="176" t="s">
         <v>2250</v>
       </c>
-      <c r="G280" s="141" t="s">
+      <c r="G280" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="H280" s="142">
-        <v>0</v>
-      </c>
-      <c r="I280" s="143">
-        <v>0</v>
-      </c>
-      <c r="J280" s="144">
+      <c r="H280" s="177">
+        <v>0</v>
+      </c>
+      <c r="I280" s="178">
+        <v>0</v>
+      </c>
+      <c r="J280" s="179">
         <v>485</v>
       </c>
-      <c r="K280" s="90">
+      <c r="K280" s="178">
         <f t="shared" si="24"/>
         <v>1697.5</v>
       </c>
-      <c r="L280" s="90">
+      <c r="L280" s="178">
         <f t="shared" si="25"/>
         <v>118.82</v>
       </c>
-      <c r="M280" s="6">
+      <c r="M280" s="180">
         <f t="shared" si="26"/>
         <v>1816.32</v>
       </c>
-      <c r="N280" s="90">
+      <c r="N280" s="178">
         <f t="shared" si="27"/>
         <v>118.82</v>
       </c>
-      <c r="O280" s="90">
+      <c r="O280" s="178">
         <f t="shared" si="28"/>
         <v>1816.32</v>
       </c>
-      <c r="P280" s="90"/>
+      <c r="P280" s="178"/>
       <c r="Q280" s="90"/>
       <c r="R280" s="92"/>
     </row>
@@ -84867,57 +84892,57 @@
       <c r="R281" s="92"/>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A282" s="71">
+      <c r="A282" s="173">
         <v>278</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="174" t="s">
         <v>3751</v>
       </c>
-      <c r="C282" s="26" t="s">
+      <c r="C282" s="175" t="s">
         <v>3736</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="174" t="s">
         <v>2261</v>
       </c>
-      <c r="E282" s="89" t="s">
+      <c r="E282" s="176" t="s">
         <v>2262</v>
       </c>
-      <c r="F282" s="89" t="s">
+      <c r="F282" s="176" t="s">
         <v>2250</v>
       </c>
-      <c r="G282" s="141" t="s">
+      <c r="G282" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="H282" s="142">
-        <v>0</v>
-      </c>
-      <c r="I282" s="143">
-        <v>0</v>
-      </c>
-      <c r="J282" s="144">
+      <c r="H282" s="177">
+        <v>0</v>
+      </c>
+      <c r="I282" s="178">
+        <v>0</v>
+      </c>
+      <c r="J282" s="179">
         <v>594</v>
       </c>
-      <c r="K282" s="90">
+      <c r="K282" s="178">
         <f t="shared" si="24"/>
         <v>2079</v>
       </c>
-      <c r="L282" s="90">
+      <c r="L282" s="178">
         <f t="shared" si="25"/>
         <v>145.53</v>
       </c>
-      <c r="M282" s="6">
+      <c r="M282" s="180">
         <f t="shared" si="26"/>
         <v>2224.5300000000002</v>
       </c>
-      <c r="N282" s="90">
+      <c r="N282" s="178">
         <f t="shared" si="27"/>
         <v>145.53</v>
       </c>
-      <c r="O282" s="90">
+      <c r="O282" s="178">
         <f t="shared" si="28"/>
         <v>2224.5300000000002</v>
       </c>
-      <c r="P282" s="90"/>
+      <c r="P282" s="178"/>
       <c r="Q282" s="90"/>
       <c r="R282" s="92"/>
     </row>
@@ -85436,6 +85461,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -85450,7 +85476,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -85460,8 +85485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB713"/>
   <sheetViews>
-    <sheetView topLeftCell="G103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q124" sqref="Q124"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -85492,24 +85517,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="155" t="s">
         <v>3455</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
       <c r="Q1" s="74"/>
       <c r="R1" s="75"/>
       <c r="S1" s="124"/>
@@ -85553,7 +85578,7 @@
       <c r="C3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="156" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="149" t="s">
@@ -85563,47 +85588,47 @@
       <c r="G3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="158" t="s">
+      <c r="J3" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="171" t="s">
+      <c r="K3" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="158" t="s">
+      <c r="L3" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="158" t="s">
+      <c r="M3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="158" t="s">
+      <c r="N3" s="161" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="160" t="s">
+      <c r="P3" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="162" t="s">
+      <c r="Q3" s="167" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="85"/>
-      <c r="S3" s="164">
+      <c r="S3" s="172">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="156" t="s">
+      <c r="T3" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="157" t="s">
+      <c r="V3" s="171" t="s">
         <v>20</v>
       </c>
     </row>
@@ -85611,29 +85636,29 @@
       <c r="A4" s="149"/>
       <c r="B4" s="149"/>
       <c r="C4" s="149"/>
-      <c r="D4" s="166"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="149"/>
       <c r="F4" s="126"/>
       <c r="G4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
       <c r="O4" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="163"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="168"/>
       <c r="R4" s="85"/>
-      <c r="S4" s="164"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="156"/>
-      <c r="V4" s="157"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="171"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="71">
@@ -85754,57 +85779,57 @@
       <c r="T6" s="96"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="71">
+      <c r="A7" s="173">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="174" t="s">
         <v>3461</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="175" t="s">
         <v>3547</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="174" t="s">
         <v>2527</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="176" t="s">
         <v>2528</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="176" t="s">
         <v>2529</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="174" t="s">
         <v>3212</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="177">
         <v>80</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="178">
         <v>5.6</v>
       </c>
-      <c r="J7" s="91">
-        <v>0</v>
-      </c>
-      <c r="K7" s="90">
+      <c r="J7" s="179">
+        <v>0</v>
+      </c>
+      <c r="K7" s="178">
         <f>ROUNDDOWN(J7*4,2)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="178">
         <f>ROUNDDOWN(K7*7%,2)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="180">
         <f>ROUNDDOWN(K7+L7,2)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="90">
+      <c r="N7" s="178">
         <f>SUM(I7+L7)</f>
         <v>5.6</v>
       </c>
-      <c r="O7" s="90">
+      <c r="O7" s="178">
         <f>ROUNDDOWN(H7+I7+M7,2)</f>
         <v>85.6</v>
       </c>
-      <c r="P7" s="90">
+      <c r="P7" s="178">
         <v>0</v>
       </c>
       <c r="Q7" s="92"/>
@@ -92281,6 +92306,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -92291,15 +92325,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/import/prep/excel/63-6ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มค63 (1-31มีค63).xlsx
+++ b/import/prep/excel/63-6ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มค63 (1-31มีค63).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E5811-567C-AD48-9E35-28443B7E2DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C84096-2C95-C247-BA82-12AC8E778523}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$S$842</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$AB$253</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11830,7 +11830,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11882,12 +11882,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12011,7 +12005,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12405,6 +12399,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12441,12 +12441,6 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12459,24 +12453,6 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -68938,8 +68914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X303"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q285" sqref="Q285"/>
+    <sheetView topLeftCell="F288" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A282" sqref="A282:XFD282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -68965,24 +68941,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="157" t="s">
         <v>3452</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
       <c r="Q1" s="140"/>
       <c r="R1" s="74"/>
     </row>
@@ -69020,7 +68996,7 @@
       <c r="C3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="158" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="149" t="s">
@@ -69030,35 +69006,35 @@
       <c r="G3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="161" t="s">
+      <c r="J3" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="161" t="s">
+      <c r="L3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="161" t="s">
+      <c r="N3" s="163" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="165" t="s">
+      <c r="P3" s="167" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="138"/>
-      <c r="R3" s="167" t="s">
+      <c r="R3" s="155" t="s">
         <v>19</v>
       </c>
     </row>
@@ -69066,25 +69042,25 @@
       <c r="A4" s="149"/>
       <c r="B4" s="149"/>
       <c r="C4" s="149"/>
-      <c r="D4" s="156"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="149"/>
       <c r="F4" s="86"/>
       <c r="G4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
       <c r="O4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="166"/>
+      <c r="P4" s="168"/>
       <c r="Q4" s="139"/>
-      <c r="R4" s="168"/>
+      <c r="R4" s="156"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="71">
@@ -80481,7 +80457,7 @@
         <v>6.37</v>
       </c>
       <c r="O204" s="90">
-        <f t="shared" ref="O204:P267" si="23">ROUNDDOWN(H204+I204+M204,2)</f>
+        <f t="shared" ref="O204:O267" si="23">ROUNDDOWN(H204+I204+M204,2)</f>
         <v>97.37</v>
       </c>
       <c r="P204" s="90">
@@ -84380,7 +84356,7 @@
       <c r="W272" s="37"/>
       <c r="X272" s="37"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A273" s="71">
         <v>269</v>
       </c>
@@ -84437,7 +84413,7 @@
       <c r="Q273" s="90"/>
       <c r="R273" s="92"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A274" s="71">
         <v>270</v>
       </c>
@@ -84494,7 +84470,7 @@
       <c r="Q274" s="90"/>
       <c r="R274" s="92"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A275" s="71">
         <v>271</v>
       </c>
@@ -84551,7 +84527,7 @@
       <c r="Q275" s="90"/>
       <c r="R275" s="92"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A276" s="71">
         <v>272</v>
       </c>
@@ -84608,7 +84584,7 @@
       <c r="Q276" s="90"/>
       <c r="R276" s="92"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A277" s="71">
         <v>273</v>
       </c>
@@ -84665,7 +84641,7 @@
       <c r="Q277" s="90"/>
       <c r="R277" s="92"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A278" s="71">
         <v>274</v>
       </c>
@@ -84722,7 +84698,7 @@
       <c r="Q278" s="90"/>
       <c r="R278" s="92"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A279" s="71">
         <v>275</v>
       </c>
@@ -84773,68 +84749,77 @@
         <f t="shared" si="28"/>
         <v>1572.9</v>
       </c>
-      <c r="P279" s="90">
-        <v>3389.25</v>
+      <c r="P279" s="94">
+        <v>1572.9</v>
       </c>
       <c r="Q279" s="90"/>
       <c r="R279" s="92"/>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A280" s="173">
+      <c r="S279" s="37">
+        <f>SUM(P279:P280)</f>
+        <v>3389.25</v>
+      </c>
+      <c r="T279" s="90">
+        <v>3389.25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A280" s="71">
         <v>276</v>
       </c>
-      <c r="B280" s="174" t="s">
+      <c r="B280" s="3" t="s">
         <v>3751</v>
       </c>
-      <c r="C280" s="175" t="s">
+      <c r="C280" s="26" t="s">
         <v>3734</v>
       </c>
-      <c r="D280" s="174" t="s">
+      <c r="D280" s="3" t="s">
         <v>2263</v>
       </c>
-      <c r="E280" s="176" t="s">
+      <c r="E280" s="89" t="s">
         <v>3769</v>
       </c>
-      <c r="F280" s="176" t="s">
+      <c r="F280" s="89" t="s">
         <v>2250</v>
       </c>
-      <c r="G280" s="174" t="s">
+      <c r="G280" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H280" s="177">
-        <v>0</v>
-      </c>
-      <c r="I280" s="178">
-        <v>0</v>
-      </c>
-      <c r="J280" s="179">
+      <c r="H280" s="5">
+        <v>0</v>
+      </c>
+      <c r="I280" s="90">
+        <v>0</v>
+      </c>
+      <c r="J280" s="91">
         <v>485</v>
       </c>
-      <c r="K280" s="178">
+      <c r="K280" s="90">
         <f t="shared" si="24"/>
         <v>1697.5</v>
       </c>
-      <c r="L280" s="178">
+      <c r="L280" s="90">
         <f t="shared" si="25"/>
         <v>118.82</v>
       </c>
-      <c r="M280" s="180">
+      <c r="M280" s="6">
         <f t="shared" si="26"/>
         <v>1816.32</v>
       </c>
-      <c r="N280" s="178">
+      <c r="N280" s="90">
         <f t="shared" si="27"/>
         <v>118.82</v>
       </c>
-      <c r="O280" s="178">
+      <c r="O280" s="90">
         <f t="shared" si="28"/>
         <v>1816.32</v>
       </c>
-      <c r="P280" s="178"/>
+      <c r="P280" s="90">
+        <v>1816.35</v>
+      </c>
       <c r="Q280" s="90"/>
       <c r="R280" s="92"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A281" s="71">
         <v>277</v>
       </c>
@@ -84885,68 +84870,77 @@
         <f t="shared" si="28"/>
         <v>2557.83</v>
       </c>
-      <c r="P281" s="90">
-        <v>4782.5</v>
+      <c r="P281" s="94">
+        <v>2557.9</v>
       </c>
       <c r="Q281" s="90"/>
       <c r="R281" s="92"/>
-    </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A282" s="173">
+      <c r="S281" s="37">
+        <f>SUM(P281:P282)</f>
+        <v>4782.5</v>
+      </c>
+      <c r="T281" s="90">
+        <v>4782.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A282" s="71">
         <v>278</v>
       </c>
-      <c r="B282" s="174" t="s">
+      <c r="B282" s="3" t="s">
         <v>3751</v>
       </c>
-      <c r="C282" s="175" t="s">
+      <c r="C282" s="26" t="s">
         <v>3736</v>
       </c>
-      <c r="D282" s="174" t="s">
+      <c r="D282" s="3" t="s">
         <v>2261</v>
       </c>
-      <c r="E282" s="176" t="s">
+      <c r="E282" s="89" t="s">
         <v>2262</v>
       </c>
-      <c r="F282" s="176" t="s">
+      <c r="F282" s="89" t="s">
         <v>2250</v>
       </c>
-      <c r="G282" s="174" t="s">
+      <c r="G282" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H282" s="177">
-        <v>0</v>
-      </c>
-      <c r="I282" s="178">
-        <v>0</v>
-      </c>
-      <c r="J282" s="179">
+      <c r="H282" s="5">
+        <v>0</v>
+      </c>
+      <c r="I282" s="90">
+        <v>0</v>
+      </c>
+      <c r="J282" s="91">
         <v>594</v>
       </c>
-      <c r="K282" s="178">
+      <c r="K282" s="90">
         <f t="shared" si="24"/>
         <v>2079</v>
       </c>
-      <c r="L282" s="178">
+      <c r="L282" s="90">
         <f t="shared" si="25"/>
         <v>145.53</v>
       </c>
-      <c r="M282" s="180">
+      <c r="M282" s="6">
         <f t="shared" si="26"/>
         <v>2224.5300000000002</v>
       </c>
-      <c r="N282" s="178">
+      <c r="N282" s="90">
         <f t="shared" si="27"/>
         <v>145.53</v>
       </c>
-      <c r="O282" s="178">
+      <c r="O282" s="90">
         <f t="shared" si="28"/>
         <v>2224.5300000000002</v>
       </c>
-      <c r="P282" s="178"/>
+      <c r="P282" s="90">
+        <v>2224.6</v>
+      </c>
       <c r="Q282" s="90"/>
       <c r="R282" s="92"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A283" s="71">
         <v>279</v>
       </c>
@@ -85003,7 +84997,7 @@
       <c r="Q283" s="90"/>
       <c r="R283" s="92"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A284" s="71">
         <v>280</v>
       </c>
@@ -85060,7 +85054,7 @@
       <c r="Q284" s="90"/>
       <c r="R284" s="92"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A285" s="71">
         <v>281</v>
       </c>
@@ -85117,7 +85111,7 @@
       <c r="Q285" s="90"/>
       <c r="R285" s="92"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A286" s="71">
         <v>282</v>
       </c>
@@ -85174,7 +85168,7 @@
       <c r="Q286" s="90"/>
       <c r="R286" s="92"/>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A287" s="71">
         <v>283</v>
       </c>
@@ -85233,7 +85227,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A288" s="71">
         <v>284</v>
       </c>
@@ -85485,8 +85479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:P7"/>
+    <sheetView tabSelected="1" topLeftCell="F30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -85517,24 +85511,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="157" t="s">
         <v>3455</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
       <c r="Q1" s="74"/>
       <c r="R1" s="75"/>
       <c r="S1" s="124"/>
@@ -85578,7 +85572,7 @@
       <c r="C3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="158" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="149" t="s">
@@ -85588,34 +85582,34 @@
       <c r="G3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="161" t="s">
+      <c r="J3" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="161" t="s">
+      <c r="L3" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="161" t="s">
+      <c r="N3" s="163" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="165" t="s">
+      <c r="P3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="167" t="s">
+      <c r="Q3" s="155" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="85"/>
@@ -85636,24 +85630,24 @@
       <c r="A4" s="149"/>
       <c r="B4" s="149"/>
       <c r="C4" s="149"/>
-      <c r="D4" s="156"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="149"/>
       <c r="F4" s="126"/>
       <c r="G4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
       <c r="O4" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="156"/>
       <c r="R4" s="85"/>
       <c r="S4" s="172"/>
       <c r="T4" s="169"/>
@@ -85770,67 +85764,72 @@
         <f>ROUNDDOWN(H6+I6+M6,2)</f>
         <v>29.96</v>
       </c>
-      <c r="P6" s="90">
+      <c r="P6" s="94">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="29">
+        <f>SUM(P6:P7)</f>
         <v>115.75</v>
       </c>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="96"/>
+      <c r="S6" s="90">
+        <v>115.75</v>
+      </c>
       <c r="T6" s="96"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="173">
+      <c r="A7" s="71">
         <v>3</v>
       </c>
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="3" t="s">
         <v>3461</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="26" t="s">
         <v>3547</v>
       </c>
-      <c r="D7" s="174" t="s">
+      <c r="D7" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="E7" s="176" t="s">
+      <c r="E7" s="89" t="s">
         <v>2528</v>
       </c>
-      <c r="F7" s="176" t="s">
+      <c r="F7" s="89" t="s">
         <v>2529</v>
       </c>
-      <c r="G7" s="174" t="s">
+      <c r="G7" s="3" t="s">
         <v>3212</v>
       </c>
-      <c r="H7" s="177">
+      <c r="H7" s="5">
         <v>80</v>
       </c>
-      <c r="I7" s="178">
+      <c r="I7" s="90">
         <v>5.6</v>
       </c>
-      <c r="J7" s="179">
-        <v>0</v>
-      </c>
-      <c r="K7" s="178">
+      <c r="J7" s="91">
+        <v>0</v>
+      </c>
+      <c r="K7" s="90">
         <f>ROUNDDOWN(J7*4,2)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="178">
+      <c r="L7" s="90">
         <f>ROUNDDOWN(K7*7%,2)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="180">
+      <c r="M7" s="6">
         <f>ROUNDDOWN(K7+L7,2)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="178">
+      <c r="N7" s="90">
         <f>SUM(I7+L7)</f>
         <v>5.6</v>
       </c>
-      <c r="O7" s="178">
+      <c r="O7" s="90">
         <f>ROUNDDOWN(H7+I7+M7,2)</f>
         <v>85.6</v>
       </c>
-      <c r="P7" s="178">
-        <v>0</v>
+      <c r="P7" s="90">
+        <v>85.75</v>
       </c>
       <c r="Q7" s="92"/>
       <c r="R7" s="93"/>
@@ -92232,7 +92231,7 @@
       <c r="R113" s="100"/>
       <c r="S113" s="118">
         <f>SUM(S5:S112)</f>
-        <v>3946.04</v>
+        <v>4061.79</v>
       </c>
       <c r="T113" s="146">
         <f>SUM(T5:T112)</f>
@@ -92306,15 +92305,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -92325,6 +92315,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
